--- a/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
+++ b/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>Index</t>
   </si>
@@ -161,9 +162,6 @@
     <t>Keep labia spread and apply lube</t>
   </si>
   <si>
-    <t>Keep labia spread and place sterile gauze in labio</t>
-  </si>
-  <si>
     <t>Take off gloves and throw them in bin</t>
   </si>
   <si>
@@ -189,6 +187,60 @@
   </si>
   <si>
     <t>Open outer cathetertube package, slide catheter_innerpack on sterile workfield, throw away outerpackage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use handhygiene </t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>Assign</t>
+  </si>
+  <si>
+    <t>Put on sterile gloves</t>
+  </si>
+  <si>
+    <t>SterileGloves</t>
+  </si>
+  <si>
+    <t>Open catheter inner package keeping catheter in package</t>
+  </si>
+  <si>
+    <t>catheter_innerpack_open</t>
+  </si>
+  <si>
+    <t>Connect catheterbag to catheter, catheter remains in innerpackage</t>
+  </si>
+  <si>
+    <t>Pull catheter out of package with cathetering hand</t>
+  </si>
+  <si>
+    <t>Grab package of cather_inner with non cathereringhand</t>
+  </si>
+  <si>
+    <t>Hold catheter 5cm from top. Hold the rest of cather as a loop</t>
+  </si>
+  <si>
+    <t>Keep labia spread and place sterile gauze in labia</t>
+  </si>
+  <si>
+    <t>Remove gauze from labia</t>
+  </si>
+  <si>
+    <t>Hold labia minora open with free hand</t>
+  </si>
+  <si>
+    <t>insert katheter top with a scooping motion</t>
+  </si>
+  <si>
+    <t>Catheter_bag_connected</t>
+  </si>
+  <si>
+    <t>Slider in catheter until urine appears, after that slide it in 2cm further</t>
   </si>
 </sst>
 </file>
@@ -217,12 +269,30 @@
       <name val="Calibri (Hoofdtekst)"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,10 +307,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -518,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,7 +631,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2">
@@ -715,7 +789,7 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -906,7 +980,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>18</v>
@@ -922,13 +996,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>19</v>
@@ -937,12 +1011,12 @@
         <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>20</v>
@@ -959,7 +1033,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>21</v>
@@ -970,18 +1044,18 @@
       <c r="D31" t="s">
         <v>17</v>
       </c>
-      <c r="E31" t="s">
-        <v>49</v>
+      <c r="E31" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>22</v>
@@ -992,18 +1066,247 @@
       <c r="D33" t="s">
         <v>17</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46">
+        <v>28</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47">
+        <v>29</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
+++ b/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
   <si>
     <t>Index</t>
   </si>
@@ -241,6 +241,81 @@
   </si>
   <si>
     <t>Slider in catheter until urine appears, after that slide it in 2cm further</t>
+  </si>
+  <si>
+    <t>Blather empties inside catheter_bag</t>
+  </si>
+  <si>
+    <t>catheter_bag_connected</t>
+  </si>
+  <si>
+    <t>Hold the catheter so it does not slide out</t>
+  </si>
+  <si>
+    <t>place syringe with water onto catheter</t>
+  </si>
+  <si>
+    <t>water_syringe</t>
+  </si>
+  <si>
+    <t>Inject liqued from syringe through catheter</t>
+  </si>
+  <si>
+    <t>Remove syringe from catheter</t>
+  </si>
+  <si>
+    <t>Pull back catheter until you feel resistance</t>
+  </si>
+  <si>
+    <t>Wash and clean genital area</t>
+  </si>
+  <si>
+    <t>pull off cloths</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>FixationMaterial</t>
+  </si>
+  <si>
+    <t>Fixate the catheter on upper leg</t>
+  </si>
+  <si>
+    <t>Help patient to sit back to position</t>
+  </si>
+  <si>
+    <t>patient_W0</t>
+  </si>
+  <si>
+    <t>Check if bed is still dry</t>
+  </si>
+  <si>
+    <t>Cloth_02_unfolded</t>
+  </si>
+  <si>
+    <t>examine</t>
+  </si>
+  <si>
+    <t>Check if catheter_bag is not below the blather</t>
+  </si>
+  <si>
+    <t>catheter_bag_attached</t>
+  </si>
+  <si>
+    <t>Clean up materials</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>workfield</t>
+  </si>
+  <si>
+    <t>Sign off</t>
+  </si>
+  <si>
+    <t>iPad_aftekenen</t>
   </si>
 </sst>
 </file>
@@ -592,15 +667,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
@@ -1172,7 +1247,7 @@
         <v>38</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1189,7 +1264,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1206,7 +1281,7 @@
         <v>38</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1275,6 +1350,259 @@
       </c>
       <c r="E48" s="3" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49">
+        <v>31</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50">
+        <v>32</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E52" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55">
+        <v>35</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57">
+        <v>36</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61">
+        <v>40</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62">
+        <v>41</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63">
+        <v>42</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64">
+        <v>43</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65">
+        <v>44</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
+++ b/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>Index</t>
   </si>
@@ -108,9 +108,6 @@
     <t>cloth_02_folded</t>
   </si>
   <si>
-    <t>Place Gauze tray on pad</t>
-  </si>
-  <si>
     <t>none( moving object</t>
   </si>
   <si>
@@ -316,6 +313,45 @@
   </si>
   <si>
     <t>iPad_aftekenen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step and index </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Place Gauze tray  &amp; plastic trashbucket. on pad</t>
+  </si>
+  <si>
+    <t>Place Gauze tray  &amp; plastic trashbucket. on pad (7)</t>
+  </si>
+  <si>
+    <t>Placing platictrashbucket in scene after opening catheter package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastic tray is used in Catheterscene because of the wet cottonballs. Spawn plasticTrashbucket when openening catheterisation. </t>
+  </si>
+  <si>
+    <t>programming, medium priority, Develop</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Detecting move of GauzeTrayWet &amp; PlasticTrashbucket</t>
+  </si>
+  <si>
+    <t>Becasue these moves are a step in protocol. The game need to detect if GauzeTray &amp; PlasticTrashbucket are moved from workfield to pad</t>
+  </si>
+  <si>
+    <t>Programming, medium priority, Develop</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating </t>
   </si>
 </sst>
 </file>
@@ -669,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,7 +889,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -862,20 +898,20 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -887,12 +923,12 @@
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -904,12 +940,12 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -921,7 +957,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -931,7 +967,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>11</v>
@@ -940,7 +976,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -948,7 +984,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>12</v>
@@ -957,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -965,7 +1001,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>13</v>
@@ -974,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -982,7 +1018,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -991,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -999,7 +1035,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>15</v>
@@ -1008,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1016,7 +1052,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -1025,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -1033,7 +1069,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25">
         <v>17</v>
@@ -1042,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -1050,12 +1086,12 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>18</v>
@@ -1064,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -1072,26 +1108,26 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>20</v>
@@ -1108,7 +1144,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>21</v>
@@ -1120,17 +1156,17 @@
         <v>17</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>22</v>
@@ -1142,22 +1178,22 @@
         <v>17</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>20</v>
@@ -1174,7 +1210,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>21</v>
@@ -1186,12 +1222,12 @@
         <v>19</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38">
         <v>22</v>
@@ -1203,17 +1239,17 @@
         <v>17</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E39" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -1225,17 +1261,17 @@
         <v>17</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E41" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>24</v>
@@ -1244,15 +1280,15 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43">
         <v>25</v>
@@ -1261,15 +1297,15 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>26</v>
@@ -1278,15 +1314,15 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>27</v>
@@ -1295,15 +1331,15 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>28</v>
@@ -1312,15 +1348,15 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>29</v>
@@ -1329,15 +1365,15 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>30</v>
@@ -1346,15 +1382,15 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>31</v>
@@ -1363,15 +1399,15 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>32</v>
@@ -1380,15 +1416,15 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>33</v>
@@ -1397,20 +1433,20 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E52" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53">
         <v>34</v>
@@ -1419,20 +1455,20 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E54" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>35</v>
@@ -1441,20 +1477,20 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E56" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57">
         <v>36</v>
@@ -1463,15 +1499,15 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58">
         <v>37</v>
@@ -1480,15 +1516,15 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59">
         <v>38</v>
@@ -1497,15 +1533,15 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60">
         <v>39</v>
@@ -1514,15 +1550,15 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61">
         <v>40</v>
@@ -1531,15 +1567,15 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62">
         <v>41</v>
@@ -1548,15 +1584,15 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B63">
         <v>42</v>
@@ -1565,15 +1601,15 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64">
         <v>43</v>
@@ -1582,15 +1618,15 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65">
         <v>44</v>
@@ -1599,10 +1635,10 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1612,29 +1648,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
     <col min="3" max="3" width="32.1640625" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
+++ b/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/triplemotionmedia 1/Documents/Care Up Game/Protocol_preparation Files/Actions_overviews/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gijs Tempel.000\Documents\care-up\Protocol_preparation Files\Actions_overviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BBDFC1-B5AF-4D96-9E6F-E501B82AFBB0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="124">
   <si>
     <t>Index</t>
   </si>
@@ -351,14 +352,59 @@
     <t>Alexander</t>
   </si>
   <si>
-    <t xml:space="preserve">Creating </t>
+    <t>Creating move positions for GauzeTrayWet &amp; PlasticTrashbucket</t>
+  </si>
+  <si>
+    <t>GauzeTrayWet &amp; PlasticTrashbucket need to be moved within the protocol. To do this, we need multiple drop locations. Please do this for GauzeTrayWet &amp; PlasticTrashbucket. How to do this can be scene here: https://github.com/GijsTempel/care-up/wiki/Objects under title ' moving objects'</t>
+  </si>
+  <si>
+    <t>Implement, medium priority develop</t>
+  </si>
+  <si>
+    <t>Creating holding animation for PlasticTrashbucket</t>
+  </si>
+  <si>
+    <t>In this protocol we need to move the PasticTrashbucket. Please create a holding animaton for this</t>
+  </si>
+  <si>
+    <t>Animation, medium priority develop</t>
+  </si>
+  <si>
+    <t>Vitalii</t>
+  </si>
+  <si>
+    <t>Adding Place Gauze tray  &amp; plastic trashbucket. on pad step to XML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Place Gauze tray  &amp; plastic trashbucket. on pad to XML actions list. Create to seperate actions for PlasticTrashBucket and GauzeTray so players can move it in custom order. </t>
+  </si>
+  <si>
+    <t>Creating animation sequence for steps (11t/m17)</t>
+  </si>
+  <si>
+    <t>Creating animation sequence for cleaning genitals</t>
+  </si>
+  <si>
+    <t>Implementing holding animation issue #851</t>
+  </si>
+  <si>
+    <t>Implement holding animation of PlasticTrashbucket so it can be called in XML</t>
+  </si>
+  <si>
+    <t>Adding animation sequence steps for cleaning genitals to actions XML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating animations sequence XML for cleaning genitals animation sequence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing animation sequence so it can be called in XML </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,8 +425,15 @@
       <color theme="1"/>
       <name val="Calibri (Hoofdtekst)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +458,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -415,10 +473,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -426,15 +485,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -702,23 +766,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="64.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="64.375" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,7 +805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -758,7 +822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -775,7 +839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -792,7 +856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -809,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -826,7 +890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -843,12 +907,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -865,7 +929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -882,12 +946,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -900,16 +964,16 @@
       <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -926,7 +990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -943,7 +1007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -960,12 +1024,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="E18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -982,7 +1046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -999,7 +1063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1016,7 +1080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1033,7 +1097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1050,7 +1114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1067,7 +1131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -1084,12 +1148,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="E26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1106,12 +1170,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="E28" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1125,7 +1189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1142,7 +1206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1159,12 +1223,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="E32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -1181,17 +1245,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="E34" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="E35" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1208,7 +1272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -1225,7 +1289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1242,12 +1306,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="E39" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -1264,12 +1328,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="E41" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -1286,7 +1350,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -1303,7 +1367,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="6" t="s">
         <v>64</v>
       </c>
@@ -1320,7 +1384,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="6" t="s">
         <v>66</v>
       </c>
@@ -1337,7 +1401,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="6" t="s">
         <v>67</v>
       </c>
@@ -1354,7 +1418,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="6" t="s">
         <v>68</v>
       </c>
@@ -1371,7 +1435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="6" t="s">
         <v>70</v>
       </c>
@@ -1388,7 +1452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="6" t="s">
         <v>71</v>
       </c>
@@ -1405,7 +1469,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="6" t="s">
         <v>73</v>
       </c>
@@ -1422,7 +1486,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="6" t="s">
         <v>74</v>
       </c>
@@ -1439,12 +1503,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="E52" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -1461,12 +1525,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="E54" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -1483,12 +1547,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="E56" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -1505,7 +1569,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -1522,7 +1586,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -1539,7 +1603,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -1556,7 +1620,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -1573,7 +1637,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -1590,7 +1654,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -1607,7 +1671,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="6" t="s">
         <v>91</v>
       </c>
@@ -1624,7 +1688,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="6" t="s">
         <v>94</v>
       </c>
@@ -1647,23 +1711,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="43.1640625" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="54.375" customWidth="1"/>
+    <col min="3" max="3" width="64.375" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -1680,40 +1744,114 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:5">
+      <c r="B3" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="C3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
+++ b/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gijs Tempel.000\Documents\care-up\Protocol_preparation Files\Actions_overviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BBDFC1-B5AF-4D96-9E6F-E501B82AFBB0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FFD9C8-E2C8-4207-A27E-A750994B6F3A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="141">
   <si>
     <t>Index</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Place Gauze tray  &amp; plastic trashbucket. on pad</t>
   </si>
   <si>
-    <t>Place Gauze tray  &amp; plastic trashbucket. on pad (7)</t>
-  </si>
-  <si>
     <t>Placing platictrashbucket in scene after opening catheter package</t>
   </si>
   <si>
@@ -379,9 +376,6 @@
     <t xml:space="preserve">Adding Place Gauze tray  &amp; plastic trashbucket. on pad to XML actions list. Create to seperate actions for PlasticTrashBucket and GauzeTray so players can move it in custom order. </t>
   </si>
   <si>
-    <t>Creating animation sequence for steps (11t/m17)</t>
-  </si>
-  <si>
     <t>Creating animation sequence for cleaning genitals</t>
   </si>
   <si>
@@ -398,13 +392,70 @@
   </si>
   <si>
     <t xml:space="preserve">Implementing animation sequence so it can be called in XML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11t/m19) Creating animation sequence for steps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7)Place Gauze tray  &amp; plastic trashbucket. on pad </t>
+  </si>
+  <si>
+    <t>Creating 3D model of catheter_Bag_packed</t>
+  </si>
+  <si>
+    <t>Creating textures for cathet_bag_packed</t>
+  </si>
+  <si>
+    <t>Creating animation of opening cather_bag_packed</t>
+  </si>
+  <si>
+    <t>Implementing animation of opening catheter_bag_packed</t>
+  </si>
+  <si>
+    <t>Adjusting cather model so it has two packages (inner and outer)</t>
+  </si>
+  <si>
+    <t>Creating animation of opening catheter outer package</t>
+  </si>
+  <si>
+    <t>Implementing animation of opening catheter outer package</t>
+  </si>
+  <si>
+    <t>Adding opening_catheter_bag_packed to Actions XML (actions_catherisation_women)</t>
+  </si>
+  <si>
+    <t>Adding opening catheter to Actions XML (actions_catherisation_women)</t>
+  </si>
+  <si>
+    <t>Creating 3D model of SterileGloves</t>
+  </si>
+  <si>
+    <t>Creating textures of SterileGloves</t>
+  </si>
+  <si>
+    <t>Spawning SterileGloves when clickin catherisation Prefab</t>
+  </si>
+  <si>
+    <t>Put on sterile Gloves when clicking on SterileGloves prefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing SterileGloves Prefab once Sterile Gloves are On. </t>
+  </si>
+  <si>
+    <t>(22)Open catheterbag package, slide catherbag out of package onto sterile workfield, do not touch catheterbag, trow away package</t>
+  </si>
+  <si>
+    <t>(23)Open outer cathetertube package, slide catheter_innerpack on sterile workfield, throw away outerpackage</t>
+  </si>
+  <si>
+    <t>(21)Put on sterile gloves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -421,19 +472,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri (Hoofdtekst)"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +516,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -473,21 +531,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -769,11 +829,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.375" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
@@ -782,7 +842,7 @@
     <col min="7" max="7" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -805,8 +865,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2">
@@ -822,8 +882,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
@@ -839,8 +899,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4">
@@ -856,8 +916,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5">
@@ -873,8 +933,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B6">
@@ -890,8 +950,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B7">
@@ -907,13 +967,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9">
@@ -929,8 +989,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10">
@@ -946,12 +1006,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -968,13 +1028,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B15">
@@ -990,8 +1050,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B16">
@@ -1007,8 +1067,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B17">
@@ -1024,13 +1084,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
       <c r="E18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B19">
@@ -1046,8 +1107,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B20">
@@ -1063,8 +1124,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B21">
@@ -1080,8 +1141,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B22">
@@ -1097,8 +1158,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B23">
@@ -1114,8 +1175,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B24">
@@ -1131,8 +1192,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B25">
@@ -1148,13 +1209,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B27">
@@ -1170,13 +1231,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="E28" s="3" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="E28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B29">
@@ -1189,8 +1251,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B30">
@@ -1206,8 +1268,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B31">
@@ -1219,17 +1281,17 @@
       <c r="D31" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B33">
@@ -1241,22 +1303,22 @@
       <c r="D33" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="E34" s="3" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="E35" s="3" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B36">
@@ -1272,7 +1334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -1285,11 +1347,11 @@
       <c r="D37" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1302,16 +1364,16 @@
       <c r="D38" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="E39" s="3" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -1324,16 +1386,16 @@
       <c r="D40" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="E41" s="3" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -1346,11 +1408,11 @@
       <c r="D42" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -1363,12 +1425,12 @@
       <c r="D43" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B44">
@@ -1380,12 +1442,12 @@
       <c r="D44" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B45">
@@ -1397,12 +1459,12 @@
       <c r="D45" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B46">
@@ -1414,12 +1476,12 @@
       <c r="D46" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B47">
@@ -1431,12 +1493,12 @@
       <c r="D47" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B48">
@@ -1448,12 +1510,12 @@
       <c r="D48" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B49">
@@ -1465,12 +1527,12 @@
       <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B50">
@@ -1482,12 +1544,12 @@
       <c r="D50" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B51">
@@ -1499,16 +1561,16 @@
       <c r="D51" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="E52" s="5" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -1521,16 +1583,16 @@
       <c r="D53" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="E54" s="5" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -1543,16 +1605,16 @@
       <c r="D55" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="E56" s="5" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -1565,11 +1627,11 @@
       <c r="D57" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -1582,11 +1644,11 @@
       <c r="D58" t="s">
         <v>37</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -1599,11 +1661,11 @@
       <c r="D59" t="s">
         <v>37</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -1616,11 +1678,11 @@
       <c r="D60" t="s">
         <v>37</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -1633,11 +1695,11 @@
       <c r="D61" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -1650,11 +1712,11 @@
       <c r="D62" t="s">
         <v>88</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -1667,12 +1729,12 @@
       <c r="D63" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B64">
@@ -1684,12 +1746,12 @@
       <c r="D64" t="s">
         <v>92</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B65">
@@ -1701,7 +1763,7 @@
       <c r="D65" t="s">
         <v>92</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1712,22 +1774,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.125" customWidth="1"/>
+    <col min="1" max="1" width="87.625" customWidth="1"/>
     <col min="2" max="2" width="54.375" customWidth="1"/>
     <col min="3" max="3" width="64.375" customWidth="1"/>
     <col min="4" max="4" width="32.625" customWidth="1"/>
     <col min="5" max="5" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -1744,114 +1806,193 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" t="s">
-        <v>121</v>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
+++ b/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gijs Tempel.000\Documents\care-up\Protocol_preparation Files\Actions_overviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/triplemotionmedia 1/Documents/Care Up Game/Protocol_preparation Files/Actions_overviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FFD9C8-E2C8-4207-A27E-A750994B6F3A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
   <si>
     <t>Index</t>
   </si>
@@ -268,9 +267,6 @@
     <t>Wash and clean genital area</t>
   </si>
   <si>
-    <t>pull off cloths</t>
-  </si>
-  <si>
     <t>Gloves</t>
   </si>
   <si>
@@ -433,28 +429,76 @@
     <t>Creating textures of SterileGloves</t>
   </si>
   <si>
-    <t>Spawning SterileGloves when clickin catherisation Prefab</t>
-  </si>
-  <si>
     <t>Put on sterile Gloves when clicking on SterileGloves prefab</t>
   </si>
   <si>
     <t xml:space="preserve">Removing SterileGloves Prefab once Sterile Gloves are On. </t>
   </si>
   <si>
-    <t>(22)Open catheterbag package, slide catherbag out of package onto sterile workfield, do not touch catheterbag, trow away package</t>
-  </si>
-  <si>
-    <t>(23)Open outer cathetertube package, slide catheter_innerpack on sterile workfield, throw away outerpackage</t>
-  </si>
-  <si>
-    <t>(21)Put on sterile gloves</t>
+    <t>(24)Put on sterile gloves</t>
+  </si>
+  <si>
+    <t>(21)Open catheterbag package, slide catherbag out of package onto sterile workfield, do not touch catheterbag, trow away package</t>
+  </si>
+  <si>
+    <t>(22)Open outer cathetertube package, slide catheter_innerpack on sterile workfield, throw away outerpackage</t>
+  </si>
+  <si>
+    <t>(25) Open inner catheter package. Keeping catheter in package</t>
+  </si>
+  <si>
+    <t>Creating animation of opening catheter inner package</t>
+  </si>
+  <si>
+    <t>Creating prefab catheter_innerpack_open</t>
+  </si>
+  <si>
+    <t>(26) Connect catheter to catheterbag</t>
+  </si>
+  <si>
+    <t>Spawning SterileGloves when clicking catherisation Prefab</t>
+  </si>
+  <si>
+    <t>Adding action to XML (actions_catherisation_women)</t>
+  </si>
+  <si>
+    <t>Replacing catheter_innerpack prefab with catheter_innerpack_open after animation</t>
+  </si>
+  <si>
+    <t>Creating animation of combining catheter_inner_open with catheter_bag</t>
+  </si>
+  <si>
+    <t>Create holding animation for catheter_bag_packed</t>
+  </si>
+  <si>
+    <t>Creating holding animation for cather_bag</t>
+  </si>
+  <si>
+    <t>Creating holding animation for catheter_innerpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create holding animation for catheter_innerpack_open </t>
+  </si>
+  <si>
+    <t>Creating holding animation for catheter_bag_connected</t>
+  </si>
+  <si>
+    <t>Adding combining catheter &amp; Catheter_bag to Actions XML (actions_catherisation_women)</t>
+  </si>
+  <si>
+    <t>Implement animation of combining catheter &amp; catheter_bag S</t>
+  </si>
+  <si>
+    <t>Start animation after combining catheter &amp; catheter_bag</t>
+  </si>
+  <si>
+    <t>pull off gloves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -486,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +565,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -536,7 +586,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -545,11 +595,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -826,20 +877,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.375" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1013,7 +1064,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1322,7 +1373,7 @@
         <v>53</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1335,11 +1386,11 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1352,11 +1403,11 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1374,11 +1425,11 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -1400,7 +1451,7 @@
         <v>63</v>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1417,7 +1468,7 @@
         <v>62</v>
       </c>
       <c r="B43">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1434,7 +1485,7 @@
         <v>64</v>
       </c>
       <c r="B44">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1446,12 +1497,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B45">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1463,12 +1514,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B46">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1480,12 +1531,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B47">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1497,12 +1548,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B48">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1514,12 +1565,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B49">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1531,12 +1582,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B50">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1548,12 +1599,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B51">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1565,17 +1616,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E52" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>76</v>
       </c>
       <c r="B53">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1587,17 +1638,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E54" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
       <c r="B55">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1609,17 +1660,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E56" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>78</v>
       </c>
       <c r="B57">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -1631,12 +1682,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>79</v>
       </c>
       <c r="B58">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1648,123 +1699,123 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59">
+        <v>41</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B59">
-        <v>38</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="4" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60">
+        <v>42</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>83</v>
       </c>
-      <c r="B60">
-        <v>39</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B61">
+        <v>43</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B61">
-        <v>40</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="4" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B62">
+        <v>44</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B62">
-        <v>41</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>88</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>89</v>
-      </c>
       <c r="B63">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="B64">
+        <v>46</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
         <v>91</v>
       </c>
-      <c r="B64">
-        <v>43</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E64" s="4" t="s">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="B65">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1773,31 +1824,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.625" customWidth="1"/>
-    <col min="2" max="2" width="54.375" customWidth="1"/>
-    <col min="3" max="3" width="64.375" customWidth="1"/>
-    <col min="4" max="4" width="32.625" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="87.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>55</v>
@@ -1808,191 +1859,267 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>119</v>
+      <c r="B11" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>140</v>
-      </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>138</v>
-      </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
       <c r="B26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>139</v>
-      </c>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
+++ b/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/triplemotionmedia 1/Documents/Care Up Game/Protocol_preparation Files/Actions_overviews/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Care-Up Project\Protocol_preparation Files\Actions_overviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C11887D-8FC5-4716-A5E6-DDA7E130C63B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -498,7 +499,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -600,7 +601,7 @@
   <cellStyles count="3">
     <cellStyle name="Goed" xfId="2" builtinId="26"/>
     <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -877,23 +878,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="64.375" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,7 +917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -933,7 +934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -950,7 +951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -967,7 +968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -984,7 +985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1018,12 +1019,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1057,12 +1058,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -1079,12 +1080,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>34</v>
       </c>
@@ -1135,13 +1136,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="E18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
@@ -1175,7 +1176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
@@ -1260,12 +1261,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
@@ -1282,13 +1283,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="E28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
@@ -1336,12 +1337,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>52</v>
       </c>
@@ -1358,17 +1359,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="E34" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="E35" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>57</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
@@ -1419,12 +1420,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="E39" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>61</v>
       </c>
@@ -1441,12 +1442,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="E41" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -1463,7 +1464,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>64</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>66</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>67</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>68</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>70</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>71</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
@@ -1616,12 +1617,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E52" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -1638,12 +1639,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E54" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -1660,12 +1661,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E56" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>155</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -1784,7 +1785,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>90</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>93</v>
       </c>
@@ -1824,23 +1825,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.6640625" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="87.625" customWidth="1"/>
+    <col min="2" max="2" width="54.375" customWidth="1"/>
+    <col min="3" max="3" width="64.375" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>106</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>102</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>109</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>113</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>116</v>
       </c>
@@ -1944,7 +1945,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -1952,60 +1953,60 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>137</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -2013,27 +2014,27 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -2041,32 +2042,32 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -2074,27 +2075,27 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>142</v>
       </c>
@@ -2102,22 +2103,22 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>154</v>
       </c>

--- a/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
+++ b/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Care-Up Project\Protocol_preparation Files\Actions_overviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gijs Tempel.000\Documents\care-up\Protocol_preparation Files\Actions_overviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C11887D-8FC5-4716-A5E6-DDA7E130C63B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1FE853-77F5-4E89-BFAE-E2A9EA28139C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="165">
   <si>
     <t>Index</t>
   </si>
@@ -319,9 +319,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Place Gauze tray  &amp; plastic trashbucket. on pad</t>
-  </si>
-  <si>
     <t>Placing platictrashbucket in scene after opening catheter package</t>
   </si>
   <si>
@@ -494,6 +491,37 @@
   </si>
   <si>
     <t>pull off gloves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place Gauze tray  &amp; </t>
+  </si>
+  <si>
+    <t>plastic trashbucket. on pad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;action points="1" description="Open outer cathetertube package, slide catheter_innerpack on sterile workfield, throw away outerpackage " fullDescription="" 
+  index="" type="combine" left="catheter" right="" extra=""&gt;&lt;/action&gt;</t>
+  </si>
+  <si>
+    <t>animation,implement, medium, develop</t>
+  </si>
+  <si>
+    <t>vitalii</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>22)Open outer cathetertube package, slide catheter_innerpack on sterile workfield, throw away outerpackage</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>8.0.0</t>
+  </si>
+  <si>
+    <t>Create a holding animation for catheter_innerpack</t>
   </si>
 </sst>
 </file>
@@ -587,7 +615,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -597,11 +625,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Goed" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -881,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -894,7 +925,7 @@
     <col min="7" max="7" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -917,7 +948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -934,7 +965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -951,7 +982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -968,7 +999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -985,7 +1016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1002,7 +1033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1019,12 +1050,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1041,7 +1072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1058,14 +1089,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1080,17 +1111,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1102,12 +1139,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1119,12 +1156,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1136,13 +1173,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="E18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
@@ -1159,7 +1196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
@@ -1176,7 +1213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
@@ -1193,7 +1230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
@@ -1210,7 +1247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
@@ -1227,7 +1264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -1244,7 +1281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
@@ -1261,12 +1298,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
@@ -1283,13 +1320,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="E28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
@@ -1303,7 +1340,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -1320,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
@@ -1337,12 +1374,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>52</v>
       </c>
@@ -1359,17 +1396,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E34" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E35" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
@@ -1386,7 +1423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>57</v>
       </c>
@@ -1403,7 +1440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
@@ -1420,12 +1457,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E39" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>61</v>
       </c>
@@ -1442,12 +1479,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E41" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -1464,7 +1501,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -1481,7 +1518,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>64</v>
       </c>
@@ -1702,7 +1739,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B59">
         <v>41</v>
@@ -1826,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1838,10 +1875,10 @@
     <col min="2" max="2" width="54.375" customWidth="1"/>
     <col min="3" max="3" width="64.375" customWidth="1"/>
     <col min="4" max="4" width="32.625" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="5" max="6" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
@@ -1857,270 +1894,306 @@
       <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B20" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C23" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
         <v>139</v>
-      </c>
-      <c r="B33" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
+++ b/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gijs Tempel.000\Documents\care-up\Protocol_preparation Files\Actions_overviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gast gebruiker\Documents\care-up\Protocol_preparation Files\Actions_overviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1FE853-77F5-4E89-BFAE-E2A9EA28139C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0985C8D9-0033-44F8-B288-9242AC75CEF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,14 +625,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1863,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="B23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2067,8 +2067,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -2088,10 +2088,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>164</v>
       </c>
       <c r="D24" t="s">
@@ -2111,32 +2111,32 @@
       <c r="A26" t="s">
         <v>135</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2144,27 +2144,27 @@
       <c r="A33" t="s">
         <v>138</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2172,29 +2172,32 @@
       <c r="A39" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>153</v>
       </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
+++ b/Protocol_preparation Files/Actions_overviews/Action_overview_catheterisation_Women.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gast gebruiker\Documents\care-up\Protocol_preparation Files\Actions_overviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0985C8D9-0033-44F8-B288-9242AC75CEF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D8C4FA23-5BB1-44B8-A15E-B5F38A63E0EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1485,10 +1485,10 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>27</v>
       </c>
       <c r="C42">
@@ -1502,10 +1502,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>28</v>
       </c>
       <c r="C43">
@@ -1519,10 +1519,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="6">
         <v>29</v>
       </c>
       <c r="C44">
@@ -1536,10 +1536,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
         <v>30</v>
       </c>
       <c r="C45">
@@ -1553,10 +1553,10 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>31</v>
       </c>
       <c r="C46">
@@ -1570,10 +1570,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="6">
         <v>32</v>
       </c>
       <c r="C47">
@@ -1587,10 +1587,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="6">
         <v>33</v>
       </c>
       <c r="C48">
@@ -1604,10 +1604,10 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="6">
         <v>34</v>
       </c>
       <c r="C49">
@@ -1621,10 +1621,10 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="6">
         <v>35</v>
       </c>
       <c r="C50">
@@ -1638,10 +1638,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="6">
         <v>36</v>
       </c>
       <c r="C51">
@@ -1655,15 +1655,17 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
       <c r="E52" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="6">
         <v>37</v>
       </c>
       <c r="C53">
@@ -1677,15 +1679,17 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
       <c r="E54" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="6">
         <v>38</v>
       </c>
       <c r="C55">
@@ -1699,15 +1703,17 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
       <c r="E56" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="6">
         <v>39</v>
       </c>
       <c r="C57">
@@ -1721,10 +1727,10 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="6">
         <v>40</v>
       </c>
       <c r="C58">
@@ -1738,10 +1744,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="6">
         <v>41</v>
       </c>
       <c r="C59">
@@ -1865,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="B23:C24"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
